--- a/var_names.xlsx
+++ b/var_names.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1600" windowWidth="24500" windowHeight="15580"/>
+    <workbookView xWindow="12160" yWindow="1600" windowWidth="24500" windowHeight="15580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>ae1_frp</t>
   </si>
@@ -312,6 +312,54 @@
   </si>
   <si>
     <t>ae4_exh_T</t>
+  </si>
+  <si>
+    <t>AE1 TC SPEED:1748:RPM:Average:900</t>
+  </si>
+  <si>
+    <t>AE2 TC SPEED:2748:RPM:Average:900</t>
+  </si>
+  <si>
+    <t>AE3 TC SPEED:3748:RPM:Average:900</t>
+  </si>
+  <si>
+    <t>AE4 TC SPEED:4748:RPM:Average:900</t>
+  </si>
+  <si>
+    <t>ae1_TC_rpm</t>
+  </si>
+  <si>
+    <t>ae2_TC_rpm</t>
+  </si>
+  <si>
+    <t>ae3_TC_rpm</t>
+  </si>
+  <si>
+    <t>ae4_TC_rpm</t>
+  </si>
+  <si>
+    <t>ME1 T/C SPEED:10006:rpm:Average:900</t>
+  </si>
+  <si>
+    <t>ME2 T/C SPEED:20006:rpm:Average:900</t>
+  </si>
+  <si>
+    <t>ME3 T/C SPEED:30006:rpm:Average:900</t>
+  </si>
+  <si>
+    <t>ME4 T/C SPEED:40006:rpm:Average:900</t>
+  </si>
+  <si>
+    <t>me1_TC_rpm</t>
+  </si>
+  <si>
+    <t>me2_TC_rpm</t>
+  </si>
+  <si>
+    <t>me3_TC_rpm</t>
+  </si>
+  <si>
+    <t>me4_TC_rpm</t>
   </si>
 </sst>
 </file>
@@ -349,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -372,17 +420,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -689,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,6 +1143,70 @@
         <v>41</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/var_names.xlsx
+++ b/var_names.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="1600" windowWidth="24500" windowHeight="15580"/>
+    <workbookView xWindow="4300" yWindow="1600" windowWidth="24500" windowHeight="15580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
